--- a/Excel-XLSX/UN-MLI.xlsx
+++ b/Excel-XLSX/UN-MLI.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>nilW6m</t>
+    <t>7qnKMH</t>
   </si>
   <si>
     <t>1971</t>
@@ -2217,13 +2217,13 @@
     <t>469</t>
   </si>
   <si>
-    <t>56043</t>
+    <t>93445</t>
   </si>
   <si>
     <t>470</t>
   </si>
   <si>
-    <t>1321</t>
+    <t>1385</t>
   </si>
   <si>
     <t>471</t>
@@ -2247,19 +2247,19 @@
     <t>477</t>
   </si>
   <si>
-    <t>14984</t>
+    <t>15010</t>
   </si>
   <si>
     <t>478</t>
   </si>
   <si>
-    <t>330713</t>
-  </si>
-  <si>
-    <t>45456</t>
-  </si>
-  <si>
-    <t>22578</t>
+    <t>360591</t>
+  </si>
+  <si>
+    <t>51546</t>
+  </si>
+  <si>
+    <t>25162</t>
   </si>
   <si>
     <t>480</t>
@@ -34683,10 +34683,10 @@
         <v>735</v>
       </c>
       <c r="O471" s="2" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="P471" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="Q471" s="2" t="s">
         <v>33</v>
@@ -34751,7 +34751,7 @@
         <v>46</v>
       </c>
       <c r="O472" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="P472" s="2" t="s">
         <v>33</v>
@@ -34816,10 +34816,10 @@
         <v>31</v>
       </c>
       <c r="N473" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O473" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="P473" s="2" t="s">
         <v>33</v>
@@ -34952,10 +34952,10 @@
         <v>31</v>
       </c>
       <c r="N475" s="2" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="O475" s="2" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="P475" s="2" t="s">
         <v>33</v>
@@ -35363,7 +35363,7 @@
         <v>46</v>
       </c>
       <c r="O481" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="P481" s="2" t="s">
         <v>33</v>
@@ -35635,7 +35635,7 @@
         <v>33</v>
       </c>
       <c r="O485" s="2" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="P485" s="2" t="s">
         <v>33</v>
@@ -35703,7 +35703,7 @@
         <v>140</v>
       </c>
       <c r="O486" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="P486" s="2" t="s">
         <v>33</v>
@@ -35836,7 +35836,7 @@
         <v>31</v>
       </c>
       <c r="N488" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O488" s="2" t="s">
         <v>33</v>
@@ -35907,7 +35907,7 @@
         <v>119</v>
       </c>
       <c r="O489" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="P489" s="2" t="s">
         <v>33</v>
